--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/33_Gaziantep_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/33_Gaziantep_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB85359D-F4C1-4032-880E-A16DBE841FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8617C7-4B18-45A4-A10F-AAAE4BBADF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{BE6027DD-1714-4418-BF0B-F2B47A56F823}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{4E999E45-EC08-48B1-AEC0-ABF0EE60A530}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{123BC746-B712-4D27-A4AC-EB9D3E9ADA0C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{785DE0F9-25CD-461B-9CF5-0F14E44D7F50}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{67BDDFF4-0A45-4538-8553-75C77A0CE6EE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C96F5C64-51C4-4BBE-B487-88DF75E75A4D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{C9D624F0-FA1E-40FE-A420-52078E0152ED}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{B1DCDC2D-86C3-4598-A9DF-32AD82499F4C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{055D2B24-9967-4E02-BE66-2DD9C6D2DD70}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3C401E5D-5379-4504-9077-F8338BBBA14C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BBA0076C-A03E-4454-A9CD-32EA8D6D9799}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EDACE236-2E4E-42B0-89D5-19504959F743}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{150716D8-9759-4E69-A5A0-D054FAF1FAAE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{59BACA91-BD49-4E56-9974-8ABAC0702939}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{99587788-4205-438A-AFB9-CB6F50AA0DD5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{81848E60-8C9E-473D-8066-5AEE38666CCE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98070F4-96A9-4973-81D9-4A3C63E6EDE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87729CA0-0B0F-4D8C-A4F2-4CFC6853E73D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2480,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B605397-1DD0-4484-B78E-9E974AACE0A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC7EB4F-037F-40E9-A678-E1B64409BE76}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3797,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C0CD3D-8FCB-46D4-A08C-EABBADCF3D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF315BC0-F606-4A49-89B7-D437923B7444}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5102,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F40DAA-C2ED-4B62-80D1-6268D22E4DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EF134F-58D5-425F-A031-2B24E75C6373}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6407,7 +6407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E828E7A-D251-426C-9ED2-5AEC6559BCE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238390E9-001A-4ECC-B2C5-28DD1EE93ED8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7696,7 +7696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA28F7E8-A0CF-4AB2-B227-10BBF8F275AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E95655-7A2B-4F37-AAFB-6B0593FE4537}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
